--- a/biology/Zoologie/Buthus_pyrenaeus/Buthus_pyrenaeus.xlsx
+++ b/biology/Zoologie/Buthus_pyrenaeus/Buthus_pyrenaeus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buthus pyrenaeus est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Pyrénées[1],[2]. Elle se rencontre en France dans les Pyrénées-Orientales et en Espagne dans la province de Gérone.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Pyrénées,. Elle se rencontre en France dans les Pyrénées-Orientales et en Espagne dans la province de Gérone.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 66,60 mm et les femelles paratypes 60,07 mm, 63,96 mm et 66,42 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 66,60 mm et les femelles paratypes 60,07 mm, 63,96 mm et 66,42 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Venin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Éric Ythier, son venin est aussi toxique que celui de Buthus occitanus, étant « potentiellement mortel pour une personne en mauvaise santé ou un enfant en bas âge »[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Éric Ythier, son venin est aussi toxique que celui de Buthus occitanus, étant « potentiellement mortel pour une personne en mauvaise santé ou un enfant en bas âge ».
 </t>
         </is>
       </c>
@@ -604,10 +622,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite par Éric Ythier en 2021 à partir de six individus auparavant identifiés comme appartenant à l'espèce Buthus occitanus[1]. Les types adultes sont déposés au musée des Confluences
-Le premier mâle est prélevé à Cerbère en 1938. Deux femelles sont trouvées dans cette même localité en 1950. Une autre femelle est trouvée à Montauriol en 1980 et deux femelles juvéniles dans le massif des Albères en 1993[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite par Éric Ythier en 2021 à partir de six individus auparavant identifiés comme appartenant à l'espèce Buthus occitanus. Les types adultes sont déposés au musée des Confluences
+Le premier mâle est prélevé à Cerbère en 1938. Deux femelles sont trouvées dans cette même localité en 1950. Une autre femelle est trouvée à Montauriol en 1980 et deux femelles juvéniles dans le massif des Albères en 1993.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, les Pyrénées.
 </t>
@@ -667,7 +689,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Ythier, 2021 : « The genus Buthus Leach, 1815 (Scorpiones: Buthidae) in France with description of a new species from the Eastern Pyrenees. » Faunitaxys, vol. 9, no 25, p. 1-6 (texte intégral).</t>
         </is>
